--- a/data.xlsx
+++ b/data.xlsx
@@ -1,34 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\SY\W2-CH-3ge\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BF6A5E-B445-437D-AE69-5BFB93ABFC50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18468" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{D2209E3E-323E-40A7-8800-F8C722D27F38}" keepAlive="1" name="查询 - allheats" description="与工作簿中“allheats”查询的连接。" type="5" refreshedVersion="0" background="1">
-    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=allheats;Extended Properties=&quot;&quot;" command="SELECT * FROM [allheats]"/>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="查询 - allheats" description="与工作簿中“allheats”查询的连接。" type="5" background="1" refreshedVersion="2" saveData="1">
+    <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=allheats;Extended Properties=&quot;&quot;" command="SELECT * FROM [allheats]" commandType="2"/>
   </connection>
 </connections>
 </file>
@@ -36,283 +25,557 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
+    <t>加权</t>
+  </si>
+  <si>
     <t>C1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>C3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>C32</t>
+  </si>
+  <si>
+    <t>C62</t>
+  </si>
+  <si>
+    <t>H30</t>
+  </si>
+  <si>
+    <t>H31</t>
+  </si>
+  <si>
+    <t>H33</t>
+  </si>
+  <si>
+    <t>H34</t>
+  </si>
+  <si>
+    <t>H35</t>
+  </si>
+  <si>
+    <t>H36</t>
+  </si>
+  <si>
+    <t>H37</t>
+  </si>
+  <si>
+    <t>H38</t>
+  </si>
+  <si>
+    <t>H39</t>
+  </si>
+  <si>
+    <t>H40</t>
+  </si>
+  <si>
+    <t>H41</t>
+  </si>
+  <si>
+    <t>H42</t>
+  </si>
+  <si>
+    <t>H43</t>
+  </si>
+  <si>
+    <t>H44</t>
+  </si>
+  <si>
+    <t>H45</t>
+  </si>
+  <si>
+    <t>H46</t>
+  </si>
+  <si>
+    <t>H47</t>
+  </si>
+  <si>
+    <t>H48</t>
+  </si>
+  <si>
+    <t>H49</t>
+  </si>
+  <si>
+    <t>H50</t>
+  </si>
+  <si>
+    <t>H51</t>
+  </si>
+  <si>
+    <t>H52</t>
+  </si>
+  <si>
+    <t>H53</t>
+  </si>
+  <si>
+    <t>H54</t>
+  </si>
+  <si>
+    <t>H55</t>
+  </si>
+  <si>
+    <t>H56</t>
+  </si>
+  <si>
+    <t>H57</t>
+  </si>
+  <si>
+    <t>H58</t>
+  </si>
+  <si>
+    <t>H59</t>
+  </si>
+  <si>
+    <t>H60</t>
+  </si>
+  <si>
+    <t>H61</t>
+  </si>
+  <si>
+    <t>H63</t>
+  </si>
+  <si>
+    <t>H64</t>
+  </si>
+  <si>
+    <t>H65</t>
   </si>
   <si>
     <t>HF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -320,24 +583,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -386,7 +935,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -421,7 +970,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -595,26 +1144,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
+  <cols>
+    <col min="5" max="5" width="14.1111111111111"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5">
       <c r="B1">
         <v>1</v>
       </c>
@@ -625,267 +1172,267 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>54.5246</v>
       </c>
       <c r="C2">
-        <v>55.081499999999998</v>
+        <v>55.0815</v>
       </c>
       <c r="D2">
         <v>54.7926</v>
       </c>
       <c r="E2">
-        <f>Sheet1!B2*0.691404+Sheet1!C2*0.208069+Sheet1!D2*0.100527</f>
-        <v>54.667414862100003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B2*0.208069+Sheet1!C2*0.691404+Sheet1!D2*0.100527</f>
+        <v>54.9365841236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>38.869999999999997</v>
+        <v>38.87</v>
       </c>
       <c r="C3">
         <v>38.3748</v>
       </c>
       <c r="D3">
-        <v>35.208300000000001</v>
+        <v>35.2083</v>
       </c>
       <c r="E3">
-        <f>Sheet1!B3*0.691404+Sheet1!C3*0.208069+Sheet1!D3*0.100527</f>
-        <v>38.398864515299998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B3*0.208069+Sheet1!C3*0.691404+Sheet1!D3*0.100527</f>
+        <v>38.1595170233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>128.95580000000001</v>
+        <v>128.9558</v>
       </c>
       <c r="C4">
-        <v>129.02340000000001</v>
+        <v>129.0234</v>
       </c>
       <c r="D4">
         <v>124.038</v>
       </c>
       <c r="E4">
-        <f>Sheet1!B4*0.691404+Sheet1!C4*0.208069+Sheet1!D4*0.100527</f>
-        <v>128.4754937838</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B4*0.208069+Sheet1!C4*0.691404+Sheet1!D4*0.100527</f>
+        <v>128.5081672298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>85.978300000000004</v>
+        <v>85.9783</v>
       </c>
       <c r="C5">
-        <v>86.143799999999999</v>
+        <v>86.1438</v>
       </c>
       <c r="D5">
-        <v>85.531099999999995</v>
+        <v>85.5311</v>
       </c>
       <c r="E5">
-        <f>Sheet1!B5*0.691404+Sheet1!C5*0.208069+Sheet1!D5*0.100527</f>
-        <v>85.967779745100017</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B5*0.208069+Sheet1!C5*0.691404+Sheet1!D5*0.100527</f>
+        <v>86.0477716876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>125.65819999999999</v>
+        <v>125.6582</v>
       </c>
       <c r="C6">
         <v>126.0802</v>
       </c>
       <c r="D6">
-        <v>115.19070000000001</v>
+        <v>115.1907</v>
       </c>
       <c r="E6">
-        <f>Sheet1!B6*0.691404+Sheet1!C6*0.208069+Sheet1!D6*0.100527</f>
-        <v>124.69373874550001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B6*0.208069+Sheet1!C6*0.691404+Sheet1!D6*0.100527</f>
+        <v>124.8977061155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>145.75530000000001</v>
+        <v>145.7553</v>
       </c>
       <c r="C7">
         <v>147.1353</v>
       </c>
       <c r="D7">
-        <v>145.95830000000001</v>
+        <v>145.9583</v>
       </c>
       <c r="E7">
-        <f>Sheet1!B7*0.691404+Sheet1!C7*0.208069+Sheet1!D7*0.100527</f>
-        <v>146.062842201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B7*0.208069+Sheet1!C7*0.691404+Sheet1!D7*0.100527</f>
+        <v>146.729844501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>91.0745</v>
       </c>
       <c r="C8">
-        <v>90.843800000000002</v>
+        <v>90.8438</v>
       </c>
       <c r="D8">
-        <v>91.489400000000003</v>
+        <v>91.4894</v>
       </c>
       <c r="E8">
-        <f>Sheet1!B8*0.691404+Sheet1!C8*0.208069+Sheet1!D8*0.100527</f>
-        <v>91.068207134000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B8*0.208069+Sheet1!C8*0.691404+Sheet1!D8*0.100527</f>
+        <v>90.9567017495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>2.2867999999999999</v>
+        <v>2.2868</v>
       </c>
       <c r="C9">
-        <v>1.1558999999999999</v>
+        <v>1.1559</v>
       </c>
       <c r="D9">
-        <v>1.2124999999999999</v>
+        <v>1.2125</v>
       </c>
       <c r="E9">
-        <f>Sheet1!B9*0.691404+Sheet1!C9*0.208069+Sheet1!D9*0.100527</f>
-        <v>1.9434986117999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B9*0.208069+Sheet1!C9*0.691404+Sheet1!D9*0.100527</f>
+        <v>1.3968950603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>57.537300000000002</v>
+        <v>57.5373</v>
       </c>
       <c r="C10">
-        <v>57.146700000000003</v>
+        <v>57.1467</v>
       </c>
       <c r="D10">
-        <v>62.120899999999999</v>
+        <v>62.1209</v>
       </c>
       <c r="E10">
-        <f>Sheet1!B10*0.691404+Sheet1!C10*0.208069+Sheet1!D10*0.100527</f>
-        <v>57.916803805800008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B10*0.208069+Sheet1!C10*0.691404+Sheet1!D10*0.100527</f>
+        <v>57.7280131548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>-20.248899999999999</v>
+        <v>-20.2489</v>
       </c>
       <c r="C11">
-        <v>-19.651700000000002</v>
+        <v>-19.6517</v>
       </c>
       <c r="D11">
         <v>-21.5578</v>
       </c>
       <c r="E11">
-        <f>Sheet1!B11*0.691404+Sheet1!C11*0.208069+Sheet1!D11*0.100527</f>
-        <v>-20.2562209835</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B11*0.208069+Sheet1!C11*0.691404+Sheet1!D11*0.100527</f>
+        <v>-19.9675733215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>-29.431699999999999</v>
+        <v>-29.4317</v>
       </c>
       <c r="C12">
-        <v>-35.550800000000002</v>
+        <v>-35.5508</v>
       </c>
       <c r="D12">
-        <v>-29.796900000000001</v>
+        <v>-29.7969</v>
       </c>
       <c r="E12">
-        <f>Sheet1!B12*0.691404+Sheet1!C12*0.208069+Sheet1!D12*0.100527</f>
-        <v>-30.741607478300001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B12*0.208069+Sheet1!C12*0.691404+Sheet1!D12*0.100527</f>
+        <v>-33.6991826768</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>127.48350000000001</v>
+        <v>127.4835</v>
       </c>
       <c r="C13">
-        <v>128.49539999999999</v>
+        <v>128.4954</v>
       </c>
       <c r="D13">
         <v>129.2276</v>
       </c>
       <c r="E13">
-        <f>Sheet1!B13*0.691404+Sheet1!C13*0.208069+Sheet1!D13*0.100527</f>
-        <v>127.86937416180001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B13*0.208069+Sheet1!C13*0.691404+Sheet1!D13*0.100527</f>
+        <v>128.3584608483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>153.51480000000001</v>
+        <v>153.5148</v>
       </c>
       <c r="C14">
         <v>147.2748</v>
       </c>
       <c r="D14">
-        <v>153.34710000000001</v>
+        <v>153.3471</v>
       </c>
       <c r="E14">
-        <f>Sheet1!B14*0.691404+Sheet1!C14*0.208069+Sheet1!D14*0.100527</f>
-        <v>152.19959106210004</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B14*0.208069+Sheet1!C14*0.691404+Sheet1!D14*0.100527</f>
+        <v>149.1835806621</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>163.1635</v>
       </c>
       <c r="C15">
-        <v>162.66130000000001</v>
+        <v>162.6613</v>
       </c>
       <c r="D15">
-        <v>162.68690000000001</v>
+        <v>162.6869</v>
       </c>
       <c r="E15">
-        <f>Sheet1!B15*0.691404+Sheet1!C15*0.208069+Sheet1!D15*0.100527</f>
-        <v>163.01109658000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B15*0.208069+Sheet1!C15*0.691404+Sheet1!D15*0.100527</f>
+        <v>162.768365743</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>124.42400000000001</v>
+        <v>124.424</v>
       </c>
       <c r="C16">
         <v>124.4704</v>
@@ -894,106 +1441,106 @@
         <v>122.6349</v>
       </c>
       <c r="E16">
-        <f>Sheet1!B16*0.691404+Sheet1!C16*0.208069+Sheet1!D16*0.100527</f>
-        <v>124.2538015459</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B16*0.208069+Sheet1!C16*0.691404+Sheet1!D16*0.100527</f>
+        <v>124.2762282899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>83.633499999999998</v>
+        <v>83.6335</v>
       </c>
       <c r="C17">
-        <v>82.729399999999998</v>
+        <v>82.7294</v>
       </c>
       <c r="D17">
-        <v>83.960700000000003</v>
+        <v>83.9607</v>
       </c>
       <c r="E17">
-        <f>Sheet1!B17*0.691404+Sheet1!C17*0.208069+Sheet1!D17*0.100527</f>
-        <v>83.478277251500003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B17*0.208069+Sheet1!C17*0.691404+Sheet1!D17*0.100527</f>
+        <v>83.041294078</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>149.2405</v>
       </c>
       <c r="C18">
-        <v>149.16669999999999</v>
+        <v>149.1667</v>
       </c>
       <c r="D18">
-        <v>149.97200000000001</v>
+        <v>149.972</v>
       </c>
       <c r="E18">
-        <f>Sheet1!B18*0.691404+Sheet1!C18*0.208069+Sheet1!D18*0.100527</f>
-        <v>149.29868000830001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B18*0.208069+Sheet1!C18*0.691404+Sheet1!D18*0.100527</f>
+        <v>149.2630098853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>138.97720000000001</v>
+        <v>138.9772</v>
       </c>
       <c r="C19">
         <v>139.2826</v>
       </c>
       <c r="D19">
-        <v>146.07589999999999</v>
+        <v>146.0759</v>
       </c>
       <c r="E19">
-        <f>Sheet1!B19*0.691404+Sheet1!C19*0.208069+Sheet1!D19*0.100527</f>
-        <v>139.7543552875</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B19*0.208069+Sheet1!C19*0.691404+Sheet1!D19*0.100527</f>
+        <v>139.9019657965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>97.834000000000003</v>
+        <v>97.834</v>
       </c>
       <c r="C20">
-        <v>97.653999999999996</v>
+        <v>97.654</v>
       </c>
       <c r="D20">
-        <v>93.591300000000004</v>
+        <v>93.5913</v>
       </c>
       <c r="E20">
-        <f>Sheet1!B20*0.691404+Sheet1!C20*0.208069+Sheet1!D20*0.100527</f>
-        <v>97.370041677100005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B20*0.208069+Sheet1!C20*0.691404+Sheet1!D20*0.100527</f>
+        <v>97.2830413771</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>27.505099999999999</v>
+        <v>27.5051</v>
       </c>
       <c r="C21">
         <v>27.5107</v>
       </c>
       <c r="D21">
-        <v>30.880800000000001</v>
+        <v>30.8808</v>
       </c>
       <c r="E21">
-        <f>Sheet1!B21*0.691404+Sheet1!C21*0.208069+Sheet1!D21*0.100527</f>
-        <v>27.8456141803</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B21*0.208069+Sheet1!C21*0.691404+Sheet1!D21*0.100527</f>
+        <v>27.8483208563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>158.91370000000001</v>
+        <v>158.9137</v>
       </c>
       <c r="C22">
         <v>158.9358</v>
@@ -1002,199 +1549,199 @@
         <v>158.7115</v>
       </c>
       <c r="E22">
-        <f>Sheet1!B22*0.691404+Sheet1!C22*0.208069+Sheet1!D22*0.100527</f>
-        <v>158.89797176549999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B22*0.208069+Sheet1!C22*0.691404+Sheet1!D22*0.100527</f>
+        <v>158.908653469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>66.624499999999998</v>
+        <v>66.6245</v>
       </c>
       <c r="C23">
-        <v>66.791799999999995</v>
+        <v>66.7918</v>
       </c>
       <c r="D23">
-        <v>63.034599999999998</v>
+        <v>63.0346</v>
       </c>
       <c r="E23">
-        <f>Sheet1!B23*0.691404+Sheet1!C23*0.208069+Sheet1!D23*0.100527</f>
-        <v>66.298428066400007</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B23*0.208069+Sheet1!C23*0.691404+Sheet1!D23*0.100527</f>
+        <v>66.3792900119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>155.74350000000001</v>
+        <v>155.7435</v>
       </c>
       <c r="C24">
         <v>155.9366</v>
       </c>
       <c r="D24">
-        <v>154.96979999999999</v>
+        <v>154.9698</v>
       </c>
       <c r="E24">
-        <f>Sheet1!B24*0.691404+Sheet1!C24*0.208069+Sheet1!D24*0.100527</f>
-        <v>155.70590038400002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B24*0.208069+Sheet1!C24*0.691404+Sheet1!D24*0.100527</f>
+        <v>155.7992323725</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>158.12610000000001</v>
+        <v>158.1261</v>
       </c>
       <c r="C25">
-        <v>158.33670000000001</v>
+        <v>158.3367</v>
       </c>
       <c r="D25">
-        <v>158.58260000000001</v>
+        <v>158.5826</v>
       </c>
       <c r="E25">
-        <f>Sheet1!B25*0.691404+Sheet1!C25*0.208069+Sheet1!D25*0.100527</f>
-        <v>158.21580990690001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B25*0.208069+Sheet1!C25*0.691404+Sheet1!D25*0.100527</f>
+        <v>158.3176002579</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>160.0027</v>
       </c>
       <c r="C26">
-        <v>159.83629999999999</v>
+        <v>159.8363</v>
       </c>
       <c r="D26">
         <v>157.6317</v>
       </c>
       <c r="E26">
-        <f>Sheet1!B26*0.691404+Sheet1!C26*0.208069+Sheet1!D26*0.100527</f>
-        <v>159.7297278014</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B26*0.208069+Sheet1!C26*0.691404+Sheet1!D26*0.100527</f>
+        <v>159.6493008574</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>169.07660000000001</v>
+        <v>169.0766</v>
       </c>
       <c r="C27">
         <v>168.7286</v>
       </c>
       <c r="D27">
-        <v>169.10929999999999</v>
+        <v>169.1093</v>
       </c>
       <c r="E27">
-        <f>Sheet1!B27*0.691404+Sheet1!C27*0.208069+Sheet1!D27*0.100527</f>
-        <v>169.0074792209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B27*0.208069+Sheet1!C27*0.691404+Sheet1!D27*0.100527</f>
+        <v>168.8392786409</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5">
       <c r="E28">
-        <f>Sheet1!B28*0.691404+Sheet1!C28*0.208069+Sheet1!D28*0.100527</f>
+        <f>Sheet1!B28*0.208069+Sheet1!C28*0.691404+Sheet1!D28*0.100527</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>29.793050000000001</v>
+        <v>29.79305</v>
       </c>
       <c r="C29">
         <v>29.782</v>
       </c>
       <c r="D29">
-        <v>29.829280000000001</v>
+        <v>29.82928</v>
       </c>
       <c r="E29">
-        <f>Sheet1!B29*0.691404+Sheet1!C29*0.208069+Sheet1!D29*0.100527</f>
-        <v>29.794392930760004</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B29*0.208069+Sheet1!C29*0.691404+Sheet1!D29*0.100527</f>
+        <v>29.78905207901</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>29.1036</v>
       </c>
       <c r="C30">
-        <v>29.086500000000001</v>
+        <v>29.0865</v>
       </c>
       <c r="D30">
-        <v>29.380400000000002</v>
+        <v>29.3804</v>
       </c>
       <c r="E30">
-        <f>Sheet1!B30*0.691404+Sheet1!C30*0.208069+Sheet1!D30*0.100527</f>
-        <v>29.127867893700003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B30*0.208069+Sheet1!C30*0.691404+Sheet1!D30*0.100527</f>
+        <v>29.1196028652</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>26.226099999999999</v>
+        <v>26.2261</v>
       </c>
       <c r="C31">
         <v>26.1799</v>
       </c>
       <c r="D31">
-        <v>26.024899999999999</v>
+        <v>26.0249</v>
       </c>
       <c r="E31">
-        <f>Sheet1!B31*0.691404+Sheet1!C31*0.208069+Sheet1!D31*0.100527</f>
-        <v>26.1962611798</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B31*0.208069+Sheet1!C31*0.691404+Sheet1!D31*0.100527</f>
+        <v>26.1739311028</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>29.793050000000001</v>
+        <v>29.79305</v>
       </c>
       <c r="C32">
-        <v>29.839300000000001</v>
+        <v>29.8393</v>
       </c>
       <c r="D32">
-        <v>29.829280000000001</v>
+        <v>29.82928</v>
       </c>
       <c r="E32">
-        <f>Sheet1!B32*0.691404+Sheet1!C32*0.208069+Sheet1!D32*0.100527</f>
-        <v>29.806315284460005</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B32*0.208069+Sheet1!C32*0.691404+Sheet1!D32*0.100527</f>
+        <v>29.82866952821</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>28.611699999999999</v>
+        <v>28.6117</v>
       </c>
       <c r="C33">
-        <v>28.505800000000001</v>
+        <v>28.5058</v>
       </c>
       <c r="D33">
         <v>29.6751</v>
       </c>
       <c r="E33">
-        <f>Sheet1!B33*0.691404+Sheet1!C33*0.208069+Sheet1!D33*0.100527</f>
-        <v>28.696565904700002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B33*0.208069+Sheet1!C33*0.691404+Sheet1!D33*0.100527</f>
+        <v>28.6453807282</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>29.1036</v>
@@ -1203,376 +1750,376 @@
         <v>28.97805</v>
       </c>
       <c r="D34">
-        <v>28.777799999999999</v>
+        <v>28.7778</v>
       </c>
       <c r="E34">
-        <f>Sheet1!B34*0.691404+Sheet1!C34*0.208069+Sheet1!D34*0.100527</f>
-        <v>29.044725240450003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B34*0.208069+Sheet1!C34*0.691404+Sheet1!D34*0.100527</f>
+        <v>28.9840425312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>29.920999999999999</v>
+        <v>29.921</v>
       </c>
       <c r="C35">
-        <v>30.104825000000002</v>
+        <v>30.104825</v>
       </c>
       <c r="D35">
-        <v>29.829280000000001</v>
+        <v>29.82928</v>
       </c>
       <c r="E35">
-        <f>Sheet1!B35*0.691404+Sheet1!C35*0.208069+Sheet1!D35*0.100527</f>
-        <v>29.950027947484998</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B35*0.208069+Sheet1!C35*0.691404+Sheet1!D35*0.100527</f>
+        <v>30.03887700386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>30.842224999999999</v>
+        <v>30.842225</v>
       </c>
       <c r="C36">
-        <v>30.582850000000001</v>
+        <v>30.58285</v>
       </c>
       <c r="D36">
-        <v>30.780799999999999</v>
+        <v>30.7808</v>
       </c>
       <c r="E36">
-        <f>Sheet1!B36*0.691404+Sheet1!C36*0.208069+Sheet1!D36*0.100527</f>
-        <v>30.782082232149996</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B36*0.208069+Sheet1!C36*0.691404+Sheet1!D36*0.100527</f>
+        <v>30.656717216525</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>30.993749999999999</v>
+        <v>30.99375</v>
       </c>
       <c r="C37">
-        <v>31.214099999999998</v>
+        <v>31.2141</v>
       </c>
       <c r="D37">
-        <v>31.125299999999999</v>
+        <v>31.1253</v>
       </c>
       <c r="E37">
-        <f>Sheet1!B37*0.691404+Sheet1!C37*0.208069+Sheet1!D37*0.100527</f>
-        <v>31.052822331000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B37*0.208069+Sheet1!C37*0.691404+Sheet1!D37*0.100527</f>
+        <v>31.15932519825</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>30.576433333299999</v>
+        <v>30.5764333333</v>
       </c>
       <c r="C38">
         <v>30.23855</v>
       </c>
       <c r="D38">
-        <v>31.010566666700001</v>
+        <v>31.0105666667</v>
       </c>
       <c r="E38">
-        <f>Sheet1!B38*0.691404+Sheet1!C38*0.208069+Sheet1!D38*0.100527</f>
-        <v>30.549772407630307</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B38*0.208069+Sheet1!C38*0.691404+Sheet1!D38*0.100527</f>
+        <v>30.3864615667297</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>31.078099999999999</v>
+        <v>31.0781</v>
       </c>
       <c r="C39">
         <v>30.7483</v>
       </c>
       <c r="D39">
-        <v>30.461449999999999</v>
+        <v>30.46145</v>
       </c>
       <c r="E39">
-        <f>Sheet1!B39*0.691404+Sheet1!C39*0.208069+Sheet1!D39*0.100527</f>
-        <v>30.947488869249998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B39*0.208069+Sheet1!C39*0.691404+Sheet1!D39*0.100527</f>
+        <v>30.78808498625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>30.842224999999999</v>
+        <v>30.842225</v>
       </c>
       <c r="C40">
         <v>29.97045</v>
       </c>
       <c r="D40">
-        <v>31.010566666700001</v>
+        <v>31.0105666667</v>
       </c>
       <c r="E40">
-        <f>Sheet1!B40*0.691404+Sheet1!C40*0.208069+Sheet1!D40*0.100527</f>
-        <v>30.67775853025335</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B40*0.208069+Sheet1!C40*0.691404+Sheet1!D40*0.100527</f>
+        <v>30.2563991606284</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>29.920999999999999</v>
+        <v>29.921</v>
       </c>
       <c r="C41">
         <v>30.7483</v>
       </c>
       <c r="D41">
-        <v>30.031066666699999</v>
+        <v>30.0310666667</v>
       </c>
       <c r="E41">
-        <f>Sheet1!B41*0.691404+Sheet1!C41*0.208069+Sheet1!D41*0.100527</f>
-        <v>30.104200155503349</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B41*0.208069+Sheet1!C41*0.691404+Sheet1!D41*0.100527</f>
+        <v>30.5040632010034</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>28.792100000000001</v>
+        <v>28.7921</v>
       </c>
       <c r="C42">
         <v>28.97805</v>
       </c>
       <c r="D42">
-        <v>27.914999999999999</v>
+        <v>27.915</v>
       </c>
       <c r="E42">
-        <f>Sheet1!B42*0.691404+Sheet1!C42*0.208069+Sheet1!D42*0.100527</f>
-        <v>28.742618198850003</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B42*0.208069+Sheet1!C42*0.691404+Sheet1!D42*0.100527</f>
+        <v>28.8324943421</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>29.505600000000001</v>
+        <v>29.5056</v>
       </c>
       <c r="C43">
-        <v>30.104825000000002</v>
+        <v>30.104825</v>
       </c>
       <c r="D43">
-        <v>28.571400000000001</v>
+        <v>28.5714</v>
       </c>
       <c r="E43">
-        <f>Sheet1!B43*0.691404+Sheet1!C43*0.208069+Sheet1!D43*0.100527</f>
-        <v>29.536367823125001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B43*0.208069+Sheet1!C43*0.691404+Sheet1!D43*0.100527</f>
+        <v>29.8259942385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B44">
-        <v>30.056000000000001</v>
+        <v>30.056</v>
       </c>
       <c r="C44">
-        <v>29.395900000000001</v>
+        <v>29.3959</v>
       </c>
       <c r="D44">
-        <v>29.829280000000001</v>
+        <v>29.82928</v>
       </c>
       <c r="E44">
-        <f>Sheet1!B44*0.691404+Sheet1!C44*0.208069+Sheet1!D44*0.100527</f>
-        <v>29.895862171659999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B44*0.208069+Sheet1!C44*0.691404+Sheet1!D44*0.100527</f>
+        <v>29.57681273816</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <v>27.232800000000001</v>
+        <v>27.2328</v>
       </c>
       <c r="C45">
         <v>27.2027</v>
       </c>
       <c r="D45">
-        <v>27.258700000000001</v>
+        <v>27.2587</v>
       </c>
       <c r="E45">
-        <f>Sheet1!B45*0.691404+Sheet1!C45*0.208069+Sheet1!D45*0.100527</f>
-        <v>27.229140772400001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B45*0.208069+Sheet1!C45*0.691404+Sheet1!D45*0.100527</f>
+        <v>27.2145923889</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>29.613600000000002</v>
+        <v>29.6136</v>
       </c>
       <c r="C46">
-        <v>30.104825000000002</v>
+        <v>30.104825</v>
       </c>
       <c r="D46">
-        <v>29.829280000000001</v>
+        <v>29.82928</v>
       </c>
       <c r="E46">
-        <f>Sheet1!B46*0.691404+Sheet1!C46*0.208069+Sheet1!D46*0.100527</f>
-        <v>29.737490357885001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B46*0.208069+Sheet1!C46*0.691404+Sheet1!D46*0.100527</f>
+        <v>29.97491659326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <v>30.056000000000001</v>
+        <v>30.056</v>
       </c>
       <c r="C47">
-        <v>29.576499999999999</v>
+        <v>29.5765</v>
       </c>
       <c r="D47">
-        <v>30.241599999999998</v>
+        <v>30.2416</v>
       </c>
       <c r="E47">
-        <f>Sheet1!B47*0.691404+Sheet1!C47*0.208069+Sheet1!D47*0.100527</f>
-        <v>29.974888725700001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B47*0.208069+Sheet1!C47*0.691404+Sheet1!D47*0.100527</f>
+        <v>29.7431295932</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <v>30.141950000000001</v>
+        <v>30.14195</v>
       </c>
       <c r="C48">
         <v>29.97045</v>
       </c>
       <c r="D48">
-        <v>30.115349999999999</v>
+        <v>30.11535</v>
       </c>
       <c r="E48">
-        <f>Sheet1!B48*0.691404+Sheet1!C48*0.208069+Sheet1!D48*0.100527</f>
-        <v>30.103592148299999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B48*0.208069+Sheet1!C48*0.691404+Sheet1!D48*0.100527</f>
+        <v>30.0207001958</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>26.759550000000001</v>
+        <v>26.75955</v>
       </c>
       <c r="C49">
-        <v>26.749300000000002</v>
+        <v>26.7493</v>
       </c>
       <c r="D49">
-        <v>26.801400000000001</v>
+        <v>26.8014</v>
       </c>
       <c r="E49">
-        <f>Sheet1!B49*0.691404+Sheet1!C49*0.208069+Sheet1!D49*0.100527</f>
-        <v>26.7616243477</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B49*0.208069+Sheet1!C49*0.691404+Sheet1!D49*0.100527</f>
+        <v>26.75667016395</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <v>26.759550000000001</v>
+        <v>26.75955</v>
       </c>
       <c r="C50">
-        <v>26.749300000000002</v>
+        <v>26.7493</v>
       </c>
       <c r="D50">
         <v>26.3703</v>
       </c>
       <c r="E50">
-        <f>Sheet1!B50*0.691404+Sheet1!C50*0.208069+Sheet1!D50*0.100527</f>
-        <v>26.718287157999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B50*0.208069+Sheet1!C50*0.691404+Sheet1!D50*0.100527</f>
+        <v>26.71333297425</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <v>30.576433333299999</v>
+        <v>30.5764333333</v>
       </c>
       <c r="C51">
-        <v>29.290800000000001</v>
+        <v>29.2908</v>
       </c>
       <c r="D51">
-        <v>29.380400000000002</v>
+        <v>29.3804</v>
       </c>
       <c r="E51">
-        <f>Sheet1!B51*0.691404+Sheet1!C51*0.208069+Sheet1!D51*0.100527</f>
-        <v>30.188699248376953</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B51*0.208069+Sheet1!C51*0.691404+Sheet1!D51*0.100527</f>
+        <v>29.5673076612264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <v>30.932400000000001</v>
+        <v>30.9324</v>
       </c>
       <c r="C52">
-        <v>30.582850000000001</v>
+        <v>30.58285</v>
       </c>
       <c r="D52">
-        <v>30.866099999999999</v>
+        <v>30.8661</v>
       </c>
       <c r="E52">
-        <f>Sheet1!B52*0.691404+Sheet1!C52*0.208069+Sheet1!D52*0.100527</f>
-        <v>30.85300454095</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B52*0.208069+Sheet1!C52*0.691404+Sheet1!D52*0.100527</f>
+        <v>30.6840547917</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <v>29.180599999999998</v>
+        <v>29.1806</v>
       </c>
       <c r="C53">
-        <v>30.913499999999999</v>
+        <v>30.9135</v>
       </c>
       <c r="D53">
-        <v>30.538499999999999</v>
+        <v>30.5385</v>
       </c>
       <c r="E53">
-        <f>Sheet1!B53*0.691404+Sheet1!C53*0.208069+Sheet1!D53*0.100527</f>
-        <v>29.677668383399997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B53*0.208069+Sheet1!C53*0.691404+Sheet1!D53*0.100527</f>
+        <v>30.5152396049</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <v>30.576433333299999</v>
+        <v>30.5764333333</v>
       </c>
       <c r="C54">
-        <v>30.913499999999999</v>
+        <v>30.9135</v>
       </c>
       <c r="D54">
         <v>30.6539</v>
       </c>
       <c r="E54">
-        <f>Sheet1!B54*0.691404+Sheet1!C54*0.208069+Sheet1!D54*0.100527</f>
-        <v>30.654353949176951</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B54*0.208069+Sheet1!C54*0.691404+Sheet1!D54*0.100527</f>
+        <v>30.8172700665264</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>30.4664</v>
@@ -1581,70 +2128,70 @@
         <v>30.4142333333</v>
       </c>
       <c r="D55">
-        <v>30.866099999999999</v>
+        <v>30.8661</v>
       </c>
       <c r="E55">
-        <f>Sheet1!B55*0.691404+Sheet1!C55*0.208069+Sheet1!D55*0.100527</f>
-        <v>30.495726375726399</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B55*0.208069+Sheet1!C55*0.691404+Sheet1!D55*0.100527</f>
+        <v>30.470512399877</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>30.842224999999999</v>
+        <v>30.842225</v>
       </c>
       <c r="C56">
         <v>30.4142333333</v>
       </c>
       <c r="D56">
-        <v>30.461449999999999</v>
+        <v>30.46145</v>
       </c>
       <c r="E56">
-        <f>Sheet1!B56*0.691404+Sheet1!C56*0.208069+Sheet1!D56*0.100527</f>
-        <v>30.714895033476395</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B56*0.208069+Sheet1!C56*0.691404+Sheet1!D56*0.100527</f>
+        <v>30.508031681252</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <v>30.203399999999998</v>
+        <v>30.2034</v>
       </c>
       <c r="C57">
         <v>30.23855</v>
       </c>
       <c r="D57">
-        <v>30.031066666699999</v>
+        <v>30.0310666667</v>
       </c>
       <c r="E57">
-        <f>Sheet1!B57*0.691404+Sheet1!C57*0.208069+Sheet1!D57*0.100527</f>
-        <v>30.193389472353349</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B57*0.208069+Sheet1!C57*0.691404+Sheet1!D57*0.100527</f>
+        <v>30.2103786976034</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>30.141950000000001</v>
+        <v>30.14195</v>
       </c>
       <c r="C58">
-        <v>30.104825000000002</v>
+        <v>30.104825</v>
       </c>
       <c r="D58">
-        <v>30.031066666699999</v>
+        <v>30.0310666667</v>
       </c>
       <c r="E58">
-        <f>Sheet1!B58*0.691404+Sheet1!C58*0.208069+Sheet1!D58*0.100527</f>
-        <v>30.123078669528351</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B58*0.208069+Sheet1!C58*0.691404+Sheet1!D58*0.100527</f>
+        <v>30.1051348576534</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>30.3979</v>
@@ -1653,34 +2200,34 @@
         <v>30.4142333333</v>
       </c>
       <c r="D59">
-        <v>30.115349999999999</v>
+        <v>30.11535</v>
       </c>
       <c r="E59">
-        <f>Sheet1!B59*0.691404+Sheet1!C59*0.208069+Sheet1!D59*0.100527</f>
-        <v>30.3728945564764</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B59*0.208069+Sheet1!C59*0.691404+Sheet1!D59*0.100527</f>
+        <v>30.380789028127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <v>30.993749999999999</v>
+        <v>30.99375</v>
       </c>
       <c r="C60">
         <v>31.0259</v>
       </c>
       <c r="D60">
-        <v>31.010566666700001</v>
+        <v>31.0105666667</v>
       </c>
       <c r="E60">
-        <f>Sheet1!B60*0.691404+Sheet1!C60*0.208069+Sheet1!D60*0.100527</f>
-        <v>31.002129947403354</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B60*0.208069+Sheet1!C60*0.691404+Sheet1!D60*0.100527</f>
+        <v>31.0176691676534</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>31.346</v>
@@ -1689,63 +2236,64 @@
         <v>31.151</v>
       </c>
       <c r="D61">
-        <v>30.925899999999999</v>
+        <v>30.9259</v>
       </c>
       <c r="E61">
-        <f>Sheet1!B61*0.691404+Sheet1!C61*0.208069+Sheet1!D61*0.100527</f>
-        <v>31.263195152300003</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <f>Sheet1!B61*0.208069+Sheet1!C61*0.691404+Sheet1!D61*0.100527</f>
+        <v>31.1689448273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <v>30.842224999999999</v>
+        <v>30.842225</v>
       </c>
       <c r="C62">
         <v>31.0259</v>
       </c>
       <c r="D62">
-        <v>31.311199999999999</v>
+        <v>31.3112</v>
       </c>
       <c r="E62">
-        <f>Sheet1!B62*0.691404+Sheet1!C62*0.208069+Sheet1!D62*0.100527</f>
-        <v>30.927586723399997</v>
+        <f>Sheet1!B62*0.208069+Sheet1!C62*0.691404+Sheet1!D62*0.100527</f>
+        <v>31.016363279525</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334AABCC-511B-4595-A5C4-49416377702A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="18.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:3">
       <c r="C1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8">
       <c r="B2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>-1387.7328176999999</v>
+        <v>-1387.7328177</v>
       </c>
       <c r="D2">
         <f>C2-C2</f>
@@ -1765,77 +2313,77 @@
       </c>
       <c r="H2">
         <f>G2/G5</f>
-        <v>0.69140427702355456</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.691404277023555</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>-1387.7316846000001</v>
+        <v>-1387.7316846</v>
       </c>
       <c r="D3">
         <f>C3-C2</f>
-        <v>1.1330999998335756E-3</v>
+        <v>0.00113309999983358</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E4" si="0">D3*627.5</f>
-        <v>0.71102024989556867</v>
+        <v>0.711020249895569</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F4" si="1">-E3/(0.0019858955*298.15)</f>
-        <v>-1.2008555352184418</v>
+        <v>-1.20085553521844</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G4" si="2">EXP(F3)</f>
-        <v>0.30093663985301494</v>
+        <v>0.300936639853015</v>
       </c>
       <c r="H3">
         <f>G3/G5</f>
-        <v>0.20806887990747164</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.208068879907472</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>-1387.7309981999999</v>
+        <v>-1387.7309982</v>
       </c>
       <c r="D4">
         <f>C4-C2</f>
-        <v>1.819500000010521E-3</v>
+        <v>0.00181950000001052</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>1.1417362500066019</v>
+        <v>1.1417362500066</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>-1.9282999264526568</v>
+        <v>-1.92829992645266</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>0.14539517097252355</v>
+        <v>0.145395170972524</v>
       </c>
       <c r="H4">
         <f>G4/G5</f>
-        <v>0.10052684306897376</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.100526843068974</v>
+      </c>
+    </row>
+    <row r="5" spans="7:7">
       <c r="G5">
         <f>SUM(G2:G4)</f>
-        <v>1.4463318108255385</v>
+        <v>1.44633181082554</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C4">
+  <sortState ref="B2:C4">
     <sortCondition ref="C1:C4"/>
   </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1844,8 +2392,6 @@
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85C95DB3-6D28-4098-A686-6A9B3CD84475}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/DataMashup"/>
-  </ds:schemaRefs>
+  <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>